--- a/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>0.1024087211254127</v>
+        <v>-0.08794879144565823</v>
       </c>
       <c r="C2">
-        <v>-0.3146163395750469</v>
+        <v>-0.2281345837858737</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>0.5623467132533344</v>
+        <v>-0.2689146979341474</v>
       </c>
       <c r="C3">
-        <v>-0.08509087299922873</v>
+        <v>0.2904403394249926</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>0.2925678618515289</v>
+        <v>-0.7173650107339983</v>
       </c>
       <c r="C4">
-        <v>-0.251939979460133</v>
+        <v>0.2040834492862479</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.2996410200728362</v>
+        <v>-0.0990421880138692</v>
       </c>
       <c r="C5">
-        <v>-0.5705156012434291</v>
+        <v>-0.3640027109257797</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.4384227669110418</v>
+        <v>0.1031631439203668</v>
       </c>
       <c r="C6">
-        <v>0.1488035771801232</v>
+        <v>0.2375362733434154</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>0.4527916511739515</v>
+        <v>-0.1495791038774646</v>
       </c>
       <c r="C7">
-        <v>-0.2549495494041476</v>
+        <v>0.3653367041317052</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>0.009121794752884467</v>
+        <v>-0.2189872995657428</v>
       </c>
       <c r="C8">
-        <v>-0.4378145490589106</v>
+        <v>-0.3676778016270782</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.1823540119896422</v>
+        <v>-0.1169763045555941</v>
       </c>
       <c r="C9">
-        <v>-0.3237208779222879</v>
+        <v>-0.2053920682659564</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.0995247918781659</v>
+        <v>0.1468951921376749</v>
       </c>
       <c r="C10">
-        <v>-0.01688645736589259</v>
+        <v>0.300179750955637</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>0.2095817843839548</v>
+        <v>-0.2606168096992059</v>
       </c>
       <c r="C11">
-        <v>-0.04266435637670436</v>
+        <v>0.1146119600183457</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>0.1127211534325045</v>
+        <v>-0.1413993731241623</v>
       </c>
       <c r="C12">
-        <v>-0.1868961008367619</v>
+        <v>-0.4233032765825469</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.02751455761552091</v>
+        <v>-0.1904091055034978</v>
       </c>
       <c r="C13">
-        <v>-0.1964308186232708</v>
+        <v>0.07622373906957672</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>-0.004684135577229039</v>
+        <v>0.2513379474984697</v>
       </c>
       <c r="C14">
-        <v>-0.124861121629747</v>
+        <v>0.06768159240201649</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-8.614643204685559E-06</v>
+        <v>-0.1483007481057371</v>
       </c>
       <c r="C15">
-        <v>-0.1194721060691734</v>
+        <v>-0.09069671435285163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.002965522921885307</v>
+        <v>0.2612963478696874</v>
       </c>
       <c r="C16">
-        <v>0.1236781055410932</v>
+        <v>-0.007641430201288569</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.001839864821548556</v>
+        <v>-0.04103851369585835</v>
       </c>
       <c r="C17">
-        <v>-0.0203705136119071</v>
+        <v>-0.1451865937329306</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.08794879144565823</v>
+        <v>0.1303827324240858</v>
       </c>
       <c r="C2">
-        <v>-0.2281345837858737</v>
+        <v>0.2489604785350144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.2689146979341474</v>
+        <v>0.1628699522827561</v>
       </c>
       <c r="C3">
-        <v>0.2904403394249926</v>
+        <v>-0.1164493770259173</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.7173650107339983</v>
+        <v>0.1209827266396085</v>
       </c>
       <c r="C4">
-        <v>0.2040834492862479</v>
+        <v>-0.3855718635361127</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.0990421880138692</v>
+        <v>0.205666759012536</v>
       </c>
       <c r="C5">
-        <v>-0.3640027109257797</v>
+        <v>0.2798943549036084</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>0.1031631439203668</v>
+        <v>0.2928904243400641</v>
       </c>
       <c r="C6">
-        <v>0.2375362733434154</v>
+        <v>-0.402266262391767</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>-0.1495791038774646</v>
+        <v>0.3243971146311336</v>
       </c>
       <c r="C7">
-        <v>0.3653367041317052</v>
+        <v>-0.2808318545561967</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.2189872995657428</v>
+        <v>0.4269953608783478</v>
       </c>
       <c r="C8">
-        <v>-0.3676778016270782</v>
+        <v>-0.1636979571852554</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.1169763045555941</v>
+        <v>0.3322062125579185</v>
       </c>
       <c r="C9">
-        <v>-0.2053920682659564</v>
+        <v>0.3948871054647279</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>0.1468951921376749</v>
+        <v>-0.08635994341456091</v>
       </c>
       <c r="C10">
-        <v>0.300179750955637</v>
+        <v>0.2795858829863248</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.2606168096992059</v>
+        <v>-0.3113047488585209</v>
       </c>
       <c r="C11">
-        <v>0.1146119600183457</v>
+        <v>-0.1260370359714243</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.1413993731241623</v>
+        <v>-0.125009764327608</v>
       </c>
       <c r="C12">
-        <v>-0.4233032765825469</v>
+        <v>-0.2393817736955996</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.1904091055034978</v>
+        <v>0.01995906236735627</v>
       </c>
       <c r="C13">
-        <v>0.07622373906957672</v>
+        <v>0.2012386853443357</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.2513379474984697</v>
+        <v>0.4931326245915859</v>
       </c>
       <c r="C14">
-        <v>0.06768159240201649</v>
+        <v>0.1745595534604872</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.1483007481057371</v>
+        <v>0.09893399808120779</v>
       </c>
       <c r="C15">
-        <v>-0.09069671435285163</v>
+        <v>-0.2219910426751996</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>0.2612963478696874</v>
+        <v>0.2041321347028903</v>
       </c>
       <c r="C16">
-        <v>-0.007641430201288569</v>
+        <v>0.04928163274642373</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.04103851369585835</v>
+        <v>-0.02831341782287976</v>
       </c>
       <c r="C17">
-        <v>-0.1451865937329306</v>
+        <v>-0.0004524403263734084</v>
       </c>
     </row>
   </sheetData>
